--- a/nanoHUB/class-cluster/cluster_overlap/cluster_overlap.xlsx
+++ b/nanoHUB/class-cluster/cluster_overlap/cluster_overlap.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sdy/nanohub/nanoHUB/class-cluster/cluster_overlap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CF120FF-3FDB-F841-9F8D-8CAA4FF0471A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D8479E-602E-C146-A6B9-F4D6635D7545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14900" activeTab="1"/>
+    <workbookView xWindow="5560" yWindow="3480" windowWidth="25820" windowHeight="16640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2007spring" sheetId="1" r:id="rId1"/>
-    <sheet name="2007fall" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="2007fall" sheetId="2" r:id="rId3"/>
+    <sheet name="To do" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="274">
   <si>
     <t>MClusterID</t>
   </si>
@@ -807,12 +809,48 @@
   </si>
   <si>
     <t>['gangadharan', 'savi', 'divsnvik', 'supreeya', 'deepthi', 'vikram', 'divya']</t>
+  </si>
+  <si>
+    <t>MikeClusterSize</t>
+  </si>
+  <si>
+    <t>XufengClusterID</t>
+  </si>
+  <si>
+    <t>Combined Size</t>
+  </si>
+  <si>
+    <t>Numbers for column EFG</t>
+  </si>
+  <si>
+    <t>Overlap usernames</t>
+  </si>
+  <si>
+    <t>MikeClusterID</t>
+  </si>
+  <si>
+    <t>Xufeng's cluster size</t>
+  </si>
+  <si>
+    <t>Year and semester</t>
+  </si>
+  <si>
+    <t>OverlapMembers</t>
+  </si>
+  <si>
+    <t>MOnlySize</t>
+  </si>
+  <si>
+    <t>XOnlySize</t>
+  </si>
+  <si>
+    <t>CombinedSize</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1646,11 +1684,1396 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I57"/>
+  <sheetViews>
+    <sheetView zoomScale="160" workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>449</v>
+      </c>
+      <c r="D2">
+        <v>360</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>449</v>
+      </c>
+      <c r="D3">
+        <v>306</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>449</v>
+      </c>
+      <c r="D4">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>449</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>449</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>181</v>
+      </c>
+      <c r="D7">
+        <v>134</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <v>181</v>
+      </c>
+      <c r="D8">
+        <v>98</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>181</v>
+      </c>
+      <c r="D9">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <v>181</v>
+      </c>
+      <c r="D10">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>181</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>36</v>
+      </c>
+      <c r="C12">
+        <v>181</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>41</v>
+      </c>
+      <c r="C13">
+        <v>181</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>37</v>
+      </c>
+      <c r="C14">
+        <v>181</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>181</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>42</v>
+      </c>
+      <c r="C16">
+        <v>181</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>43</v>
+      </c>
+      <c r="C17">
+        <v>181</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>40</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>37</v>
+      </c>
+      <c r="D21">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>31</v>
+      </c>
+      <c r="D22">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>31</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>31</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>29</v>
+      </c>
+      <c r="D25">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>29</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>40</v>
+      </c>
+      <c r="C27">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>41</v>
+      </c>
+      <c r="C28">
+        <v>23</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>16</v>
+      </c>
+      <c r="D31">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" t="s">
+        <v>94</v>
+      </c>
+      <c r="G31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>16</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>22</v>
+      </c>
+      <c r="C33">
+        <v>16</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" t="s">
+        <v>100</v>
+      </c>
+      <c r="G33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>23</v>
+      </c>
+      <c r="C34">
+        <v>16</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>15</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" t="s">
+        <v>106</v>
+      </c>
+      <c r="G35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>11</v>
+      </c>
+      <c r="B36">
+        <v>21</v>
+      </c>
+      <c r="C36">
+        <v>15</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" t="s">
+        <v>109</v>
+      </c>
+      <c r="G36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>13</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>15</v>
+      </c>
+      <c r="D37">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" t="s">
+        <v>112</v>
+      </c>
+      <c r="G37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>15</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" t="s">
+        <v>115</v>
+      </c>
+      <c r="G38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>14</v>
+      </c>
+      <c r="B39">
+        <v>30</v>
+      </c>
+      <c r="C39">
+        <v>11</v>
+      </c>
+      <c r="D39">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>14</v>
+      </c>
+      <c r="B40">
+        <v>31</v>
+      </c>
+      <c r="C40">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" t="s">
+        <v>120</v>
+      </c>
+      <c r="G40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>15</v>
+      </c>
+      <c r="B41">
+        <v>28</v>
+      </c>
+      <c r="C41">
+        <v>11</v>
+      </c>
+      <c r="D41">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" t="s">
+        <v>123</v>
+      </c>
+      <c r="G41" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>16</v>
+      </c>
+      <c r="B42">
+        <v>14</v>
+      </c>
+      <c r="C42">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>125</v>
+      </c>
+      <c r="F42" t="s">
+        <v>126</v>
+      </c>
+      <c r="G42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>17</v>
+      </c>
+      <c r="B43">
+        <v>44</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" t="s">
+        <v>128</v>
+      </c>
+      <c r="G43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>17</v>
+      </c>
+      <c r="B44">
+        <v>35</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>130</v>
+      </c>
+      <c r="F44" t="s">
+        <v>131</v>
+      </c>
+      <c r="G44" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>17</v>
+      </c>
+      <c r="B45">
+        <v>42</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>133</v>
+      </c>
+      <c r="F45" t="s">
+        <v>134</v>
+      </c>
+      <c r="G45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>17</v>
+      </c>
+      <c r="B46">
+        <v>43</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>136</v>
+      </c>
+      <c r="F46" t="s">
+        <v>137</v>
+      </c>
+      <c r="G46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>19</v>
+      </c>
+      <c r="B47">
+        <v>13</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>139</v>
+      </c>
+      <c r="F47" t="s">
+        <v>140</v>
+      </c>
+      <c r="G47" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>20</v>
+      </c>
+      <c r="B48">
+        <v>13</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>142</v>
+      </c>
+      <c r="F48" t="s">
+        <v>143</v>
+      </c>
+      <c r="G48" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>20</v>
+      </c>
+      <c r="B49">
+        <v>14</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>145</v>
+      </c>
+      <c r="F49" t="s">
+        <v>146</v>
+      </c>
+      <c r="G49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>22</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>9</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>148</v>
+      </c>
+      <c r="F50" t="s">
+        <v>149</v>
+      </c>
+      <c r="G50" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>22</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>151</v>
+      </c>
+      <c r="F51" t="s">
+        <v>152</v>
+      </c>
+      <c r="G51" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>23</v>
+      </c>
+      <c r="B52">
+        <v>29</v>
+      </c>
+      <c r="C52">
+        <v>8</v>
+      </c>
+      <c r="D52">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>154</v>
+      </c>
+      <c r="G52" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>28</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>6</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53" t="s">
+        <v>156</v>
+      </c>
+      <c r="F53" t="s">
+        <v>157</v>
+      </c>
+      <c r="G53" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>35</v>
+      </c>
+      <c r="B54">
+        <v>33</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>159</v>
+      </c>
+      <c r="F54" t="s">
+        <v>160</v>
+      </c>
+      <c r="G54" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>36</v>
+      </c>
+      <c r="B55">
+        <v>29</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>162</v>
+      </c>
+      <c r="F55" t="s">
+        <v>163</v>
+      </c>
+      <c r="G55" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>38</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56" t="s">
+        <v>165</v>
+      </c>
+      <c r="F56" t="s">
+        <v>166</v>
+      </c>
+      <c r="G56" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>38</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>168</v>
+      </c>
+      <c r="F57" t="s">
+        <v>169</v>
+      </c>
+      <c r="G57" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F178E00-57BE-8B45-B939-29C168D58304}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>273</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1683,22 +3106,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C2">
-        <v>449</v>
+        <v>190</v>
       </c>
       <c r="D2">
-        <v>360</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>171</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1706,2038 +3129,752 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>449</v>
+        <v>190</v>
       </c>
       <c r="D3">
-        <v>306</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>449</v>
+        <v>68</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>32</v>
+      </c>
+      <c r="D5">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>449</v>
-      </c>
-      <c r="D5">
-        <v>12</v>
-      </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>449</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>181</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>134</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C8">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>189</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>190</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>193</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>197</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>198</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B13">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B14">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C14">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+      <c r="D15">
         <v>2</v>
       </c>
-      <c r="B15">
-        <v>38</v>
-      </c>
-      <c r="C15">
-        <v>181</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>210</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B16">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>212</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>213</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B17">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C17">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>215</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>216</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>218</v>
       </c>
       <c r="G18" t="s">
-        <v>57</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B19">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C19">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>220</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>221</v>
       </c>
       <c r="G19" t="s">
-        <v>59</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B20">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C20">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>223</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>224</v>
       </c>
       <c r="G20" t="s">
-        <v>62</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B21">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D21">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>226</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>227</v>
       </c>
       <c r="G21" t="s">
-        <v>65</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D22">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>229</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>230</v>
       </c>
       <c r="G22" t="s">
-        <v>68</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="C23">
         <v>9</v>
-      </c>
-      <c r="C23">
-        <v>31</v>
       </c>
       <c r="D23">
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>232</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>233</v>
       </c>
       <c r="G23" t="s">
-        <v>71</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C24">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>235</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>236</v>
       </c>
       <c r="G24" t="s">
-        <v>74</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B25">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C25">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>238</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="G25" t="s">
-        <v>77</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C26">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="F26" t="s">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="G26" t="s">
-        <v>80</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B27">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>81</v>
+        <v>244</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="G27" t="s">
-        <v>83</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B28">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>247</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
+        <v>248</v>
       </c>
       <c r="G28" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>88</v>
+        <v>250</v>
       </c>
       <c r="G29" t="s">
-        <v>89</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30">
         <v>6</v>
-      </c>
-      <c r="C30">
-        <v>20</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>90</v>
+        <v>252</v>
       </c>
       <c r="F30" t="s">
-        <v>91</v>
+        <v>253</v>
       </c>
       <c r="G30" t="s">
-        <v>92</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C31">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D31">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>94</v>
+        <v>255</v>
       </c>
       <c r="G31" t="s">
-        <v>95</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C32">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>96</v>
+        <v>257</v>
       </c>
       <c r="F32" t="s">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="G32" t="s">
-        <v>98</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B33">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C33">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="G33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>10</v>
-      </c>
-      <c r="B34">
-        <v>23</v>
-      </c>
-      <c r="C34">
-        <v>16</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-      <c r="E34" t="s">
-        <v>102</v>
-      </c>
-      <c r="F34" t="s">
-        <v>103</v>
-      </c>
-      <c r="G34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>11</v>
-      </c>
-      <c r="B35">
-        <v>12</v>
-      </c>
-      <c r="C35">
-        <v>15</v>
-      </c>
-      <c r="D35">
-        <v>10</v>
-      </c>
-      <c r="E35" t="s">
-        <v>105</v>
-      </c>
-      <c r="F35" t="s">
-        <v>106</v>
-      </c>
-      <c r="G35" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>11</v>
-      </c>
-      <c r="B36">
-        <v>21</v>
-      </c>
-      <c r="C36">
-        <v>15</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>108</v>
-      </c>
-      <c r="F36" t="s">
-        <v>109</v>
-      </c>
-      <c r="G36" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>13</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37">
-        <v>15</v>
-      </c>
-      <c r="D37">
-        <v>11</v>
-      </c>
-      <c r="E37" t="s">
-        <v>111</v>
-      </c>
-      <c r="F37" t="s">
-        <v>112</v>
-      </c>
-      <c r="G37" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>13</v>
-      </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38">
-        <v>15</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>114</v>
-      </c>
-      <c r="F38" t="s">
-        <v>115</v>
-      </c>
-      <c r="G38" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>14</v>
-      </c>
-      <c r="B39">
-        <v>30</v>
-      </c>
-      <c r="C39">
-        <v>11</v>
-      </c>
-      <c r="D39">
-        <v>11</v>
-      </c>
-      <c r="E39" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" t="s">
-        <v>117</v>
-      </c>
-      <c r="G39" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>14</v>
-      </c>
-      <c r="B40">
-        <v>31</v>
-      </c>
-      <c r="C40">
-        <v>11</v>
-      </c>
-      <c r="D40">
-        <v>8</v>
-      </c>
-      <c r="E40" t="s">
-        <v>119</v>
-      </c>
-      <c r="F40" t="s">
-        <v>120</v>
-      </c>
-      <c r="G40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>15</v>
-      </c>
-      <c r="B41">
-        <v>28</v>
-      </c>
-      <c r="C41">
-        <v>11</v>
-      </c>
-      <c r="D41">
-        <v>9</v>
-      </c>
-      <c r="E41" t="s">
-        <v>122</v>
-      </c>
-      <c r="F41" t="s">
-        <v>123</v>
-      </c>
-      <c r="G41" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>16</v>
-      </c>
-      <c r="B42">
-        <v>14</v>
-      </c>
-      <c r="C42">
-        <v>11</v>
-      </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
-      <c r="E42" t="s">
-        <v>125</v>
-      </c>
-      <c r="F42" t="s">
-        <v>126</v>
-      </c>
-      <c r="G42" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>17</v>
-      </c>
-      <c r="B43">
-        <v>44</v>
-      </c>
-      <c r="C43">
-        <v>10</v>
-      </c>
-      <c r="D43">
-        <v>9</v>
-      </c>
-      <c r="E43" t="s">
-        <v>50</v>
-      </c>
-      <c r="F43" t="s">
-        <v>128</v>
-      </c>
-      <c r="G43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>17</v>
-      </c>
-      <c r="B44">
-        <v>35</v>
-      </c>
-      <c r="C44">
-        <v>10</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s">
-        <v>130</v>
-      </c>
-      <c r="F44" t="s">
-        <v>131</v>
-      </c>
-      <c r="G44" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>17</v>
-      </c>
-      <c r="B45">
-        <v>42</v>
-      </c>
-      <c r="C45">
-        <v>10</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>133</v>
-      </c>
-      <c r="F45" t="s">
-        <v>134</v>
-      </c>
-      <c r="G45" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>17</v>
-      </c>
-      <c r="B46">
-        <v>43</v>
-      </c>
-      <c r="C46">
-        <v>10</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46" t="s">
-        <v>136</v>
-      </c>
-      <c r="F46" t="s">
-        <v>137</v>
-      </c>
-      <c r="G46" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>19</v>
-      </c>
-      <c r="B47">
-        <v>13</v>
-      </c>
-      <c r="C47">
-        <v>10</v>
-      </c>
-      <c r="D47">
-        <v>3</v>
-      </c>
-      <c r="E47" t="s">
-        <v>139</v>
-      </c>
-      <c r="F47" t="s">
-        <v>140</v>
-      </c>
-      <c r="G47" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>20</v>
-      </c>
-      <c r="B48">
-        <v>13</v>
-      </c>
-      <c r="C48">
-        <v>10</v>
-      </c>
-      <c r="D48">
-        <v>6</v>
-      </c>
-      <c r="E48" t="s">
-        <v>142</v>
-      </c>
-      <c r="F48" t="s">
-        <v>143</v>
-      </c>
-      <c r="G48" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>20</v>
-      </c>
-      <c r="B49">
-        <v>14</v>
-      </c>
-      <c r="C49">
-        <v>10</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="E49" t="s">
-        <v>145</v>
-      </c>
-      <c r="F49" t="s">
-        <v>146</v>
-      </c>
-      <c r="G49" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>22</v>
-      </c>
-      <c r="B50">
-        <v>9</v>
-      </c>
-      <c r="C50">
-        <v>9</v>
-      </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-      <c r="E50" t="s">
-        <v>148</v>
-      </c>
-      <c r="F50" t="s">
-        <v>149</v>
-      </c>
-      <c r="G50" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>22</v>
-      </c>
-      <c r="B51">
-        <v>10</v>
-      </c>
-      <c r="C51">
-        <v>9</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" t="s">
-        <v>151</v>
-      </c>
-      <c r="F51" t="s">
-        <v>152</v>
-      </c>
-      <c r="G51" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>23</v>
-      </c>
-      <c r="B52">
-        <v>29</v>
-      </c>
-      <c r="C52">
-        <v>8</v>
-      </c>
-      <c r="D52">
-        <v>8</v>
-      </c>
-      <c r="E52" t="s">
-        <v>44</v>
-      </c>
-      <c r="F52" t="s">
-        <v>154</v>
-      </c>
-      <c r="G52" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>28</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>6</v>
-      </c>
-      <c r="D53">
-        <v>4</v>
-      </c>
-      <c r="E53" t="s">
-        <v>156</v>
-      </c>
-      <c r="F53" t="s">
-        <v>157</v>
-      </c>
-      <c r="G53" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>35</v>
-      </c>
-      <c r="B54">
-        <v>33</v>
-      </c>
-      <c r="C54">
-        <v>5</v>
-      </c>
-      <c r="D54">
-        <v>2</v>
-      </c>
-      <c r="E54" t="s">
-        <v>159</v>
-      </c>
-      <c r="F54" t="s">
-        <v>160</v>
-      </c>
-      <c r="G54" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>36</v>
-      </c>
-      <c r="B55">
-        <v>29</v>
-      </c>
-      <c r="C55">
-        <v>5</v>
-      </c>
-      <c r="D55">
-        <v>3</v>
-      </c>
-      <c r="E55" t="s">
-        <v>162</v>
-      </c>
-      <c r="F55" t="s">
-        <v>163</v>
-      </c>
-      <c r="G55" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>38</v>
-      </c>
-      <c r="B56">
-        <v>2</v>
-      </c>
-      <c r="C56">
-        <v>5</v>
-      </c>
-      <c r="D56">
-        <v>3</v>
-      </c>
-      <c r="E56" t="s">
-        <v>165</v>
-      </c>
-      <c r="F56" t="s">
-        <v>166</v>
-      </c>
-      <c r="G56" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>38</v>
-      </c>
-      <c r="B57">
-        <v>3</v>
-      </c>
-      <c r="C57">
-        <v>5</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57" t="s">
-        <v>168</v>
-      </c>
-      <c r="F57" t="s">
-        <v>169</v>
-      </c>
-      <c r="G57" t="s">
-        <v>170</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A4B68E-E577-4545-B037-EC063DB33ECE}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>190</v>
-      </c>
-      <c r="D2">
-        <v>181</v>
-      </c>
-      <c r="E2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>25</v>
-      </c>
-      <c r="C3">
-        <v>190</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>24</v>
-      </c>
-      <c r="C4">
-        <v>68</v>
-      </c>
-      <c r="D4">
-        <v>63</v>
-      </c>
-      <c r="E4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F4" t="s">
-        <v>178</v>
-      </c>
-      <c r="G4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>29</v>
-      </c>
-      <c r="C5">
-        <v>32</v>
-      </c>
-      <c r="D5">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>30</v>
-      </c>
-      <c r="C6">
-        <v>32</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>183</v>
-      </c>
-      <c r="F6" t="s">
-        <v>184</v>
-      </c>
-      <c r="G6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>32</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>26</v>
-      </c>
-      <c r="C8">
-        <v>28</v>
-      </c>
-      <c r="D8">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>189</v>
-      </c>
-      <c r="F8" t="s">
-        <v>190</v>
-      </c>
-      <c r="G8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>28</v>
-      </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F9" t="s">
-        <v>193</v>
-      </c>
-      <c r="G9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>28</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>195</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>28</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
-        <v>197</v>
-      </c>
-      <c r="F11" t="s">
-        <v>198</v>
-      </c>
-      <c r="G11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>27</v>
-      </c>
-      <c r="D12">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>200</v>
-      </c>
-      <c r="F12" t="s">
-        <v>201</v>
-      </c>
-      <c r="G12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>25</v>
-      </c>
-      <c r="D13">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>203</v>
-      </c>
-      <c r="F13" t="s">
-        <v>204</v>
-      </c>
-      <c r="G13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>28</v>
-      </c>
-      <c r="C14">
-        <v>25</v>
-      </c>
-      <c r="D14">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>206</v>
-      </c>
-      <c r="F14" t="s">
-        <v>207</v>
-      </c>
-      <c r="G14" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>8</v>
-      </c>
-      <c r="B15">
-        <v>27</v>
-      </c>
-      <c r="C15">
-        <v>25</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>209</v>
-      </c>
-      <c r="F15" t="s">
-        <v>210</v>
-      </c>
-      <c r="G15" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>9</v>
-      </c>
-      <c r="B16">
-        <v>11</v>
-      </c>
-      <c r="C16">
-        <v>22</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>212</v>
-      </c>
-      <c r="F16" t="s">
-        <v>213</v>
-      </c>
-      <c r="G16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>10</v>
-      </c>
-      <c r="B17">
-        <v>32</v>
-      </c>
-      <c r="C17">
-        <v>19</v>
-      </c>
-      <c r="D17">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>215</v>
-      </c>
-      <c r="F17" t="s">
-        <v>216</v>
-      </c>
-      <c r="G17" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>11</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <v>17</v>
-      </c>
-      <c r="D18">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" t="s">
-        <v>218</v>
-      </c>
-      <c r="G18" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>13</v>
-      </c>
-      <c r="B19">
-        <v>23</v>
-      </c>
-      <c r="C19">
-        <v>14</v>
-      </c>
-      <c r="D19">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>220</v>
-      </c>
-      <c r="F19" t="s">
-        <v>221</v>
-      </c>
-      <c r="G19" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>15</v>
-      </c>
-      <c r="B20">
-        <v>21</v>
-      </c>
-      <c r="C20">
-        <v>13</v>
-      </c>
-      <c r="D20">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>223</v>
-      </c>
-      <c r="F20" t="s">
-        <v>224</v>
-      </c>
-      <c r="G20" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>16</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="D21">
-        <v>9</v>
-      </c>
-      <c r="E21" t="s">
-        <v>226</v>
-      </c>
-      <c r="F21" t="s">
-        <v>227</v>
-      </c>
-      <c r="G21" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>16</v>
-      </c>
-      <c r="B22">
-        <v>6</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22" t="s">
-        <v>229</v>
-      </c>
-      <c r="F22" t="s">
-        <v>230</v>
-      </c>
-      <c r="G22" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>17</v>
-      </c>
-      <c r="B23">
-        <v>19</v>
-      </c>
-      <c r="C23">
-        <v>9</v>
-      </c>
-      <c r="D23">
-        <v>7</v>
-      </c>
-      <c r="E23" t="s">
-        <v>232</v>
-      </c>
-      <c r="F23" t="s">
-        <v>233</v>
-      </c>
-      <c r="G23" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>18</v>
-      </c>
-      <c r="B24">
-        <v>14</v>
-      </c>
-      <c r="C24">
-        <v>9</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>235</v>
-      </c>
-      <c r="F24" t="s">
-        <v>236</v>
-      </c>
-      <c r="G24" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>19</v>
-      </c>
-      <c r="B25">
-        <v>32</v>
-      </c>
-      <c r="C25">
-        <v>9</v>
-      </c>
-      <c r="D25">
-        <v>5</v>
-      </c>
-      <c r="E25" t="s">
-        <v>238</v>
-      </c>
-      <c r="F25" t="s">
-        <v>239</v>
-      </c>
-      <c r="G25" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>19</v>
-      </c>
-      <c r="B26">
-        <v>33</v>
-      </c>
-      <c r="C26">
-        <v>9</v>
-      </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26" t="s">
-        <v>241</v>
-      </c>
-      <c r="F26" t="s">
-        <v>242</v>
-      </c>
-      <c r="G26" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>19</v>
-      </c>
-      <c r="B27">
-        <v>31</v>
-      </c>
-      <c r="C27">
-        <v>9</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>244</v>
-      </c>
-      <c r="F27" t="s">
-        <v>245</v>
-      </c>
-      <c r="G27" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>20</v>
-      </c>
-      <c r="B28">
-        <v>12</v>
-      </c>
-      <c r="C28">
-        <v>9</v>
-      </c>
-      <c r="D28">
-        <v>5</v>
-      </c>
-      <c r="E28" t="s">
-        <v>247</v>
-      </c>
-      <c r="F28" t="s">
-        <v>248</v>
-      </c>
-      <c r="G28" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>21</v>
-      </c>
-      <c r="B29">
-        <v>14</v>
-      </c>
-      <c r="C29">
-        <v>6</v>
-      </c>
-      <c r="D29">
-        <v>6</v>
-      </c>
-      <c r="E29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" t="s">
-        <v>250</v>
-      </c>
-      <c r="G29" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>23</v>
-      </c>
-      <c r="B30">
-        <v>20</v>
-      </c>
-      <c r="C30">
-        <v>6</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>252</v>
-      </c>
-      <c r="F30" t="s">
-        <v>253</v>
-      </c>
-      <c r="G30" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>26</v>
-      </c>
-      <c r="B31">
-        <v>33</v>
-      </c>
-      <c r="C31">
-        <v>5</v>
-      </c>
-      <c r="D31">
-        <v>5</v>
-      </c>
-      <c r="E31" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" t="s">
-        <v>255</v>
-      </c>
-      <c r="G31" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>29</v>
-      </c>
-      <c r="B32">
-        <v>19</v>
-      </c>
-      <c r="C32">
-        <v>5</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-      <c r="E32" t="s">
-        <v>257</v>
-      </c>
-      <c r="F32" t="s">
-        <v>258</v>
-      </c>
-      <c r="G32" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>30</v>
-      </c>
-      <c r="B33">
-        <v>16</v>
-      </c>
-      <c r="C33">
-        <v>5</v>
-      </c>
-      <c r="D33">
-        <v>5</v>
-      </c>
-      <c r="E33" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" t="s">
-        <v>260</v>
-      </c>
-      <c r="G33" t="s">
-        <v>261</v>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
